--- a/src/cloud/tests/AP/AP_USA/CreateAccountingITC_Test.xlsx
+++ b/src/cloud/tests/AP/AP_USA/CreateAccountingITC_Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pbethi\Documents\GitHub\SeleniumFramework_2021B\src\cloud\tests\AP\AP_USA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminitc-my.sharepoint.com/personal/vramasubramanian_itconvergence_com/Documents/Documents/GitHub/SeleniumFramework_2021B/src/cloud/tests/AP/AP_USA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17613D50-798B-4127-9F7A-921078CED8A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{17613D50-798B-4127-9F7A-921078CED8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A52FF64-A2B4-4E03-867B-C06AB59A402E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22776" yWindow="-1248" windowWidth="18756" windowHeight="9312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS01" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Execute</t>
   </si>
@@ -74,6 +74,33 @@
   </si>
   <si>
     <t>Navigate</t>
+  </si>
+  <si>
+    <t>ProcessCategory</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>AccountingMode</t>
+  </si>
+  <si>
+    <t>ProcessEvents</t>
+  </si>
+  <si>
+    <t>ReportStyle</t>
+  </si>
+  <si>
+    <t>TransferToGeneralLedger</t>
+  </si>
+  <si>
+    <t>PostInGeneralLedger</t>
+  </si>
+  <si>
+    <t>JournalBatch</t>
+  </si>
+  <si>
+    <t>IncludeUserTransactionIndentifier</t>
   </si>
 </sst>
 </file>
@@ -245,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -297,7 +324,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -499,26 +526,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="3"/>
-    <col min="2" max="2" width="0.81640625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="20.7265625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="0.81640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="0.81640625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="20.7265625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="0.81640625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="0.85546875" style="2" customWidth="1"/>
+    <col min="3" max="5" width="20.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="0.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="0.85546875" style="2" customWidth="1"/>
+    <col min="9" max="19" width="20.7109375" style="3" customWidth="1"/>
+    <col min="20" max="20" width="0.85546875" style="2" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,9 +560,18 @@
       <c r="I1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -554,8 +590,35 @@
       <c r="J2" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="K2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -575,14 +638,23 @@
       <c r="J3" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -595,7 +667,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
